--- a/backend/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>5bdccb07-f9a8-43c0-8e4f-7a14564b2490</t>
+    <t>af446f84-48f2-4801-b9f8-4f7dde93a4bf</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>

--- a/backend/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>af446f84-48f2-4801-b9f8-4f7dde93a4bf</t>
+    <t>f959f34b-f265-4989-a949-9b02f9dbca5a</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>

--- a/backend/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>f959f34b-f265-4989-a949-9b02f9dbca5a</t>
+    <t>cb3cb955-d7c2-4bf1-8487-86bd225a9ccd</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>

--- a/backend/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>cb3cb955-d7c2-4bf1-8487-86bd225a9ccd</t>
+    <t>19434891-b92a-4b42-896f-9c8462956444</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>

--- a/backend/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>19434891-b92a-4b42-896f-9c8462956444</t>
+    <t>b765e630-f695-4474-9788-1734bea859ab</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>

--- a/backend/storage/app/xlsx/seed_cidades_es.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_es.xlsx
@@ -23,7 +23,7 @@
     <t>AFONSO-CLAUDENSE</t>
   </si>
   <si>
-    <t>b765e630-f695-4474-9788-1734bea859ab</t>
+    <t>5237207c-0035-4e34-b2ec-ee6ee705afd0</t>
   </si>
   <si>
     <t>ÁGUIA BRANCA</t>
